--- a/uloha_01/data_01/tabulka_q_spinani.xlsx
+++ b/uloha_01/data_01/tabulka_q_spinani.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t xml:space="preserve">&amp;</t>
   </si>
@@ -256,16 +256,17 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,12 +308,21 @@
       <c r="C2" s="1" t="n">
         <v>24.6</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E2" s="1" t="n">
         <v>51.041241</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G2" s="1" t="n">
         <v>2074.847208</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I2" s="1" t="n">
         <v>772.743482</v>
       </c>
@@ -327,12 +337,21 @@
       <c r="C3" s="1" t="n">
         <v>23.8</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E3" s="1" t="n">
         <v>51.041241</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G3" s="1" t="n">
         <v>2144.589972</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I3" s="1" t="n">
         <v>772.743482</v>
       </c>
@@ -347,12 +366,21 @@
       <c r="C4" s="1" t="n">
         <v>26.5</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="n">
         <v>54.103716</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="1" t="n">
         <v>2041.649653</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I4" s="1" t="n">
         <v>819.108091</v>
       </c>
@@ -367,12 +395,21 @@
       <c r="C5" s="1" t="n">
         <v>30.1</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>64.822376</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G5" s="1" t="n">
         <v>2153.567325</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I5" s="1" t="n">
         <v>981.384223</v>
       </c>
@@ -387,12 +424,21 @@
       <c r="C6" s="1" t="n">
         <v>25.9</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="1" t="n">
         <v>51.80686</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G6" s="1" t="n">
         <v>2000.264863</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I6" s="1" t="n">
         <v>784.334635</v>
       </c>
@@ -407,12 +453,21 @@
       <c r="C7" s="1" t="n">
         <v>21.6</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="1" t="n">
         <v>48.489179</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="1" t="n">
         <v>2244.86941</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I7" s="1" t="n">
         <v>734.106308</v>
       </c>
@@ -427,12 +482,21 @@
       <c r="C8" s="1" t="n">
         <v>28.2</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="1" t="n">
         <v>66.60882</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="1" t="n">
         <v>2362.014891</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I8" s="1" t="n">
         <v>1008.430244</v>
       </c>
@@ -447,12 +511,21 @@
       <c r="C9" s="1" t="n">
         <v>25.5</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="1" t="n">
         <v>44.916292</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G9" s="1" t="n">
         <v>1761.42323</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I9" s="1" t="n">
         <v>680.014264</v>
       </c>
@@ -467,12 +540,21 @@
       <c r="C10" s="1" t="n">
         <v>25.4</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="1" t="n">
         <v>66.353614</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G10" s="1" t="n">
         <v>2612.346997</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="I10" s="1" t="n">
         <v>1004.566527</v>
       </c>
@@ -487,11 +569,20 @@
       <c r="C11" s="1" t="n">
         <v>25.3</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="1" t="n">
         <v>51.80686</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G11" s="1" t="n">
         <v>2047.701974</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>784.334635</v>
@@ -513,11 +604,20 @@
       <c r="C12" s="1" t="n">
         <v>25.69</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="1" t="n">
         <v>55.09902</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G12" s="1" t="n">
         <v>2144.327552</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>834.176589</v>
@@ -536,11 +636,20 @@
       <c r="C13" s="1" t="n">
         <v>2.195655</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="1" t="n">
         <v>7.460974</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="G13" s="1" t="n">
         <v>216.49495</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>112.956094</v>
